--- a/web/PirateCardsLayaGame/design/Config/Common/Global.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Global.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD448450-35BB-475F-BCEC-89AB9F81A18A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C2B2D-D3E7-4002-B5EA-83745C22A4C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>每日刷新时间</t>
   </si>
@@ -109,48 +109,6 @@
   </si>
   <si>
     <t>wordCheck</t>
-  </si>
-  <si>
-    <t>notices</t>
-  </si>
-  <si>
-    <t>PvpMatchTime</t>
-  </si>
-  <si>
-    <t>PvpMatchTime2</t>
-  </si>
-  <si>
-    <t>ChannelMine</t>
-  </si>
-  <si>
-    <t>pvpResultMaxCnt</t>
-  </si>
-  <si>
-    <t>shareTitle</t>
-  </si>
-  <si>
-    <t>shareImgUrl</t>
-  </si>
-  <si>
-    <t>shareImgId</t>
-  </si>
-  <si>
-    <t>per1V10Icon</t>
-  </si>
-  <si>
-    <t>per2V10Icon</t>
-  </si>
-  <si>
-    <t>worldChatIcon</t>
-  </si>
-  <si>
-    <t>pvpIconReward</t>
-  </si>
-  <si>
-    <t>maxBagSpace</t>
-  </si>
-  <si>
-    <t>DefAvatar</t>
   </si>
   <si>
     <t>游客</t>
@@ -536,10 +494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -574,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,166 +686,6 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5">
         <v>1</v>
       </c>
     </row>
